--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/MAINE_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/MAINE_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C9">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C16">
@@ -817,41 +817,6 @@
       </c>
       <c r="D31">
         <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/MAINE_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/MAINE_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -781,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -794,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
